--- a/icc_models.xlsx
+++ b/icc_models.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgunawa9.APP.000\Documents\APP\APPS\icc-backend\iccbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100A5B82-5AF5-4BD7-B35D-E6092FA60A3C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB191B0E-1B00-498C-A75C-CDDF3EA55467}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1455" windowWidth="16440" windowHeight="7890" xr2:uid="{1C4E5235-FC65-48AC-9209-4926E50BCD05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1C4E5235-FC65-48AC-9209-4926E50BCD05}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="data model" sheetId="1" r:id="rId1"/>
+    <sheet name="region" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>advisory</t>
   </si>
@@ -54,9 +55,6 @@
     <t>title_id</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -99,9 +97,6 @@
     <t>map</t>
   </si>
   <si>
-    <t>document</t>
-  </si>
-  <si>
     <t>guideline</t>
   </si>
   <si>
@@ -117,12 +112,6 @@
     <t>risk_category</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
@@ -148,6 +137,48 @@
   </si>
   <si>
     <t>Field</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>attachment</t>
+  </si>
+  <si>
+    <t>Asia inc. China</t>
+  </si>
+  <si>
+    <t>North Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central and East Africa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Africa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Africa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North America inc Canada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South America </t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Europe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Europe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle East </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Asia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia and the Caucuses </t>
   </si>
 </sst>
 </file>
@@ -186,7 +217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,14 +234,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,65 +557,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40A586F-853E-48C6-8F2F-2AA8F929F670}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -592,31 +615,25 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>4</v>
@@ -624,177 +641,156 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
+      <c r="D3" t="s">
+        <v>19</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D5" t="s">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
         <v>3</v>
       </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
       <c r="I5" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
+      <c r="D7" t="s">
+        <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I13" s="2"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -803,4 +799,83 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1F98DF-B3AD-4C51-9F87-7B28456E9D7B}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>